--- a/models/Sentence_based/stage_1_matrix_train.xlsx
+++ b/models/Sentence_based/stage_1_matrix_train.xlsx
@@ -379,10 +379,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>124714</v>
+        <v>124345</v>
       </c>
       <c r="C2" t="n">
-        <v>4170</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C3" t="n">
-        <v>43529</v>
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
